--- a/biology/Botanique/Étage_circalittoral/Étage_circalittoral.xlsx
+++ b/biology/Botanique/Étage_circalittoral/Étage_circalittoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tage_circalittoral</t>
+          <t>Étage_circalittoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'étage circalittoral appelé également étage sublittoral, correspond à la partie basse de la zone photique, la partie du littoral la plus profonde, presque totalement sombre. Cet étage commence là où les algues photophiles (qui aiment la lumière) se font rares, jusqu’à la profondeur où les algues sciaphiles (qui ont besoin de très peu de lumière) disparaissent. Il se caractérise par la présence des algues brunes de la famille des fucales.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tage_circalittoral</t>
+          <t>Étage_circalittoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -510,138 +522,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Définition</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Par rapport aux marées
-Par rapport aux conditions
-Formation/composition géologique
-Ensoleillement
-Temps d'immersion
-Autres critères</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89tage_circalittoral</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tage_circalittoral</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Mode abrité</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Flore
-Faune</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89tage_circalittoral</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tage_circalittoral</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Mode semi-battu</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Flore
-Faune</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89tage_circalittoral</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tage_circalittoral</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Mode battu</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Flore
-Faune</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89tage_circalittoral</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89tage_circalittoral</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Le rôle joué par l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
